--- a/biology/Médecine/Hôpital_central_de_l'Est_de_Tallinn/Hôpital_central_de_l'Est_de_Tallinn.xlsx
+++ b/biology/Médecine/Hôpital_central_de_l'Est_de_Tallinn/Hôpital_central_de_l'Est_de_Tallinn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_l%27Est_de_Tallinn</t>
+          <t>Hôpital_central_de_l'Est_de_Tallinn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital central de l'Est de Tallinn (estonien : Ida-Tallinna Keskhaigla, en abrégé ITK) est un hôpital situé dans le quartier de Veerenni à Tallinn en Estonie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_l%27Est_de_Tallinn</t>
+          <t>Hôpital_central_de_l'Est_de_Tallinn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central d'East Tallinn est composé de 7 cliniques:  Clinique de diagnostic, Clinique de médecine interne, Clinique ophtalmologique, Clinique gynécologique, Clinique chirurgicale, clinique de réadaptation fonctionnelle et Clinique de soins infirmiers de longue durée[1]. 
-Les cliniques à leur tour comprennent des centres et des départements qui se concentrent sur une spécialité au sens plus strict[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central d'East Tallinn est composé de 7 cliniques:  Clinique de diagnostic, Clinique de médecine interne, Clinique ophtalmologique, Clinique gynécologique, Clinique chirurgicale, clinique de réadaptation fonctionnelle et Clinique de soins infirmiers de longue durée. 
+Les cliniques à leur tour comprennent des centres et des départements qui se concentrent sur une spécialité au sens plus strict.
 L’hôpital dispose de 567 lits.
-Il emploie 2 356 personnes dont: 380 docteurs, 989 infirmiers, 467 aides soignants et 445 administratifs[1].
+Il emploie 2 356 personnes dont: 380 docteurs, 989 infirmiers, 467 aides soignants et 445 administratifs.
 </t>
         </is>
       </c>
